--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -15100,7 +15100,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15110,16 +15110,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15148,7 +15148,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15158,16 +15158,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -17404,7 +17404,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17432,12 +17432,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17452,7 +17452,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17480,12 +17480,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -1028,7 +1028,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -15100,7 +15100,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15110,16 +15110,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15148,7 +15148,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15158,16 +15158,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -17404,7 +17404,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17432,12 +17432,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17452,7 +17452,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17480,12 +17480,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -15196,7 +15196,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15206,16 +15206,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15244,7 +15244,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15254,16 +15254,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -17500,7 +17500,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17528,12 +17528,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17548,7 +17548,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17576,12 +17576,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -15196,7 +15196,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15206,16 +15206,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15244,7 +15244,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15254,16 +15254,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -17500,7 +17500,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17528,12 +17528,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17548,7 +17548,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17576,12 +17576,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mejora del desempeño ambiental del sistema de tratamiento de purines mediante biodigestor anaeróbico, y riego de flora nativa de la Granja de Cerdos Porkland</t>
+          <t>Planta Solar Fotovoltaica Oro y Cielo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Paola Barzelatto Jequier</t>
+          <t>Acciona Energía Chile SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1070</v>
+        <v>72000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/02/2022</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155126466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155117958&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Oro y Cielo</t>
+          <t>Mejora del desempeño ambiental del sistema de tratamiento de purines mediante biodigestor anaeróbico, y riego de flora nativa de la Granja de Cerdos Porkland</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,11 +487,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Acciona Energía Chile SpA</t>
+          <t>Paola Barzelatto Jequier</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>72000</v>
+        <v>1070</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -500,12 +500,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155117958&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155126466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -15196,7 +15196,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15206,16 +15206,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15244,7 +15244,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15254,16 +15254,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -17500,7 +17500,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17528,12 +17528,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17548,7 +17548,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17576,12 +17576,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -15196,7 +15196,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15206,16 +15206,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15244,7 +15244,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15254,16 +15254,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -17500,7 +17500,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17528,12 +17528,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17548,7 +17548,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17576,12 +17576,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -15244,7 +15244,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15254,16 +15254,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15292,7 +15292,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15302,16 +15302,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -17548,7 +17548,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17576,12 +17576,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17596,7 +17596,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17624,12 +17624,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -15244,7 +15244,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15254,16 +15254,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15292,7 +15292,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15302,16 +15302,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -17548,7 +17548,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17576,12 +17576,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17596,7 +17596,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17624,12 +17624,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -15292,7 +15292,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15302,16 +15302,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15340,7 +15340,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15350,16 +15350,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -17596,7 +17596,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17624,12 +17624,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17644,7 +17644,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17672,12 +17672,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -15292,7 +15292,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15302,16 +15302,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15340,7 +15340,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15350,16 +15350,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -17596,7 +17596,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17624,12 +17624,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17644,7 +17644,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17672,12 +17672,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11/03/2022</t>
+          <t>15/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -15292,7 +15292,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15302,16 +15302,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15340,7 +15340,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15350,16 +15350,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -17596,7 +17596,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17624,12 +17624,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17644,7 +17644,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17672,12 +17672,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Incorporación de unidad de osmosis inversa al tratamiento de Riles existente</t>
+          <t>Mejora del desempeño ambiental del sistema de tratamiento de purines mediante biodigestor anaeróbico, y riego de flora nativa de la Granja de Cerdos Porkland</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Porkland Chile S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>300</v>
+        <v>1070</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/03/2022</t>
+          <t>18/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155284857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155206896&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mejora del desempeño ambiental del sistema de tratamiento de purines mediante biodigestor anaeróbico, y riego de flora nativa de la Granja de Cerdos Porkland</t>
+          <t>Incorporación de unidad de osmosis inversa al tratamiento de Riles existente</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Porkland Chile S.A.</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1070</v>
+        <v>300</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>15/03/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155206896&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155284857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2022</t>
+          <t>21/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15/03/2022</t>
+          <t>21/03/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -15292,7 +15292,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15302,16 +15302,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15340,7 +15340,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15350,16 +15350,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -17596,7 +17596,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17624,12 +17624,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17644,7 +17644,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17672,12 +17672,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -4959,7 +4959,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>25/05/2014</t>
+          <t>26/05/2014</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -15292,7 +15292,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15302,16 +15302,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15340,7 +15340,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15350,16 +15350,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -17596,7 +17596,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17624,12 +17624,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17644,7 +17644,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17672,12 +17672,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -1028,7 +1028,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/04/2022</t>
+          <t>18/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -15388,7 +15388,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15398,16 +15398,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15436,7 +15436,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15446,16 +15446,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -17692,7 +17692,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17720,12 +17720,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17740,7 +17740,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17768,12 +17768,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -15388,7 +15388,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15398,16 +15398,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15436,7 +15436,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15446,16 +15446,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -17692,7 +17692,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17720,12 +17720,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17740,7 +17740,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17768,12 +17768,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2022</t>
+          <t>20/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Plataforma de manejo de residuos para reciclaje y valorización energética, COACTIVA SPA</t>
+          <t>Proyecto Solar Fotovoltaico Don Darío</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>COACTIVA SPA</t>
+          <t>PSF DON DARÍO SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7000</v>
+        <v>180000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/04/2022</t>
+          <t>21/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155642058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155568631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proyecto Solar Fotovoltaico Don Darío</t>
+          <t>Plataforma de manejo de residuos para reciclaje y valorización energética, COACTIVA SPA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PSF DON DARÍO SPA</t>
+          <t>COACTIVA SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>180000</v>
+        <v>7000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14/04/2022</t>
+          <t>20/04/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155568631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155642058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -15388,7 +15388,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15398,16 +15398,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15436,7 +15436,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15446,16 +15446,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -17692,7 +17692,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17720,12 +17720,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17740,7 +17740,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17768,12 +17768,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -15388,7 +15388,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15398,16 +15398,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15436,7 +15436,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15446,16 +15446,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -17692,7 +17692,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17720,12 +17720,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17740,7 +17740,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17768,12 +17768,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -15388,7 +15388,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15398,16 +15398,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15436,7 +15436,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15446,16 +15446,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -17692,7 +17692,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17720,12 +17720,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17740,7 +17740,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17768,12 +17768,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -15436,7 +15436,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15446,16 +15446,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15484,7 +15484,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15494,16 +15494,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -17740,7 +17740,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17768,12 +17768,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17788,7 +17788,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17816,12 +17816,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -15436,7 +15436,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15446,16 +15446,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15484,7 +15484,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15494,16 +15494,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -17740,7 +17740,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17768,12 +17768,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17788,7 +17788,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17816,12 +17816,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/06/2022</t>
+          <t>20/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -15484,7 +15484,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15494,16 +15494,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15532,7 +15532,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15542,16 +15542,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -17788,7 +17788,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17816,12 +17816,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17836,7 +17836,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17864,12 +17864,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/07/2022</t>
+          <t>20/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -20587,7 +20587,7 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Colbún Transmisión SA</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -15484,7 +15484,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15494,16 +15494,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15532,7 +15532,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15542,16 +15542,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -17788,7 +17788,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17816,12 +17816,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17836,7 +17836,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17864,12 +17864,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -5151,7 +5151,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>26/05/2014</t>
+          <t>25/05/2014</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -15484,7 +15484,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15494,16 +15494,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15532,7 +15532,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15542,16 +15542,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -17788,7 +17788,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17816,12 +17816,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17836,7 +17836,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17864,12 +17864,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -15532,7 +15532,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15542,16 +15542,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15590,16 +15590,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -17836,7 +17836,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17864,12 +17864,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17884,7 +17884,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17912,12 +17912,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -15532,7 +15532,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15542,16 +15542,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15590,16 +15590,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -17836,7 +17836,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17864,12 +17864,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17884,7 +17884,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17912,12 +17912,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05/08/2022</t>
+          <t>16/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/09/2022</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -13963,7 +13963,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F284" t="n">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/09/2022</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15590,16 +15590,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15638,16 +15638,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -17884,7 +17884,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17912,12 +17912,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17932,7 +17932,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17960,12 +17960,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>21/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15590,16 +15590,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15638,16 +15638,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -17884,7 +17884,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17912,12 +17912,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17932,7 +17932,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17960,12 +17960,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15590,16 +15590,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15638,16 +15638,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -17884,7 +17884,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17912,12 +17912,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17932,7 +17932,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17960,12 +17960,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -2551,7 +2551,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Aguas PAcifico SpA</t>
+          <t>Acueducto San Isidro Quilapilún SpA</t>
         </is>
       </c>
       <c r="F46" t="n">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,11 +12391,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15638,16 +15638,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15676,7 +15676,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15686,16 +15686,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -17932,7 +17932,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17960,12 +17960,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17980,7 +17980,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18008,12 +18008,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/12/2022</t>
+          <t>18/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,11 +12391,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15638,16 +15638,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15676,7 +15676,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15686,16 +15686,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -17932,7 +17932,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17960,12 +17960,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17980,7 +17980,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18008,12 +18008,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,11 +12391,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15638,16 +15638,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15676,7 +15676,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15686,16 +15686,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -17932,7 +17932,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17960,12 +17960,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17980,7 +17980,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18008,12 +18008,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/01/2023</t>
+          <t>21/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -5335,7 +5335,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -11143,7 +11143,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -11671,7 +11671,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F236" t="n">
@@ -11911,7 +11911,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F241" t="n">
@@ -12007,7 +12007,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F243" t="n">
@@ -12199,7 +12199,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F247" t="n">
@@ -12247,7 +12247,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F248" t="n">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,11 +12391,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15638,16 +15638,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15676,7 +15676,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15686,16 +15686,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -16459,7 +16459,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F336" t="n">
@@ -17932,7 +17932,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17960,12 +17960,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17980,7 +17980,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18008,12 +18008,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -20491,7 +20491,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F420" t="n">
@@ -20635,7 +20635,7 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F423" t="n">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,11 +12391,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12439,11 +12439,11 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -15676,7 +15676,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15686,16 +15686,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15724,7 +15724,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15734,16 +15734,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -17980,7 +17980,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18008,12 +18008,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18028,7 +18028,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18056,12 +18056,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,11 +12391,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12439,11 +12439,11 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -15676,7 +15676,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15686,16 +15686,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15724,7 +15724,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15734,16 +15734,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -17980,7 +17980,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18008,12 +18008,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18028,7 +18028,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18056,12 +18056,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/01/2023</t>
+          <t>23/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Parque Solar Alagua SPA</t>
         </is>
       </c>
       <c r="F28" t="n">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12439,11 +12439,11 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12487,11 +12487,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12500,12 +12500,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -15724,7 +15724,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15734,16 +15734,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15772,7 +15772,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15782,16 +15782,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -18028,7 +18028,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18056,12 +18056,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18076,7 +18076,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18104,12 +18104,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12439,11 +12439,11 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12487,11 +12487,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12500,12 +12500,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -15724,7 +15724,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15734,16 +15734,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15772,7 +15772,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15782,16 +15782,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -18028,7 +18028,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18056,12 +18056,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18076,7 +18076,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18104,12 +18104,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/02/2023</t>
+          <t>10/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -19771,7 +19771,7 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F405" t="n">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -4340,7 +4340,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12439,11 +12439,11 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12487,11 +12487,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12500,12 +12500,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -15724,7 +15724,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15734,16 +15734,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15772,7 +15772,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15782,16 +15782,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -18028,7 +18028,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18056,12 +18056,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18076,7 +18076,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18104,12 +18104,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12487,11 +12487,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12500,12 +12500,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,11 +12535,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -15772,7 +15772,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15782,16 +15782,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15820,7 +15820,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15830,16 +15830,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -18076,7 +18076,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18104,12 +18104,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18124,7 +18124,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18152,12 +18152,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12487,11 +12487,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12500,12 +12500,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,11 +12535,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -15772,7 +15772,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15782,16 +15782,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15820,7 +15820,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15830,16 +15830,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -18076,7 +18076,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18104,12 +18104,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18124,7 +18124,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18152,12 +18152,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/03/2023</t>
+          <t>24/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -5439,7 +5439,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>25/05/2014</t>
+          <t>26/05/2014</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2023</t>
+          <t>20/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,11 +12535,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,11 +12583,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -15820,7 +15820,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15830,16 +15830,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15868,7 +15868,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15878,16 +15878,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -18124,7 +18124,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18152,12 +18152,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18172,7 +18172,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18200,12 +18200,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,11 +12535,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,11 +12583,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -15820,7 +15820,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15830,16 +15830,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15868,7 +15868,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15878,16 +15878,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -18124,7 +18124,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18152,12 +18152,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18172,7 +18172,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18200,12 +18200,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Solek Chile Holding SpA</t>
+          <t>Parque Solar Alsol SpA.</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,11 +12535,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,11 +12583,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -15820,7 +15820,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15830,16 +15830,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15868,7 +15868,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15878,16 +15878,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -18124,7 +18124,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18152,12 +18152,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18172,7 +18172,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18200,12 +18200,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -5487,7 +5487,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>26/05/2014</t>
+          <t>25/05/2014</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -7063,7 +7063,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Harsco Metals Chile S.A.</t>
+          <t>EcoAZA</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,11 +12535,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,11 +12583,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -15820,7 +15820,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15830,16 +15830,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15868,7 +15868,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15878,16 +15878,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -18124,7 +18124,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18152,12 +18152,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18172,7 +18172,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18200,12 +18200,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,11 +12535,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,11 +12583,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -15820,7 +15820,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15830,16 +15830,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15868,7 +15868,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15878,16 +15878,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -18124,7 +18124,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18152,12 +18152,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18172,7 +18172,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18200,12 +18200,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>PSF DON HUMBERTO SPA</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,11 +12535,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,11 +12583,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -15820,7 +15820,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15830,16 +15830,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15868,7 +15868,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15878,16 +15878,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -18124,7 +18124,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18152,12 +18152,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18172,7 +18172,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18200,12 +18200,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,11 +12583,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,11 +12631,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -15868,7 +15868,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15878,16 +15878,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15916,7 +15916,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15926,16 +15926,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -18172,7 +18172,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18200,12 +18200,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18220,7 +18220,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18248,12 +18248,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,11 +12583,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,11 +12631,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -15868,7 +15868,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15878,16 +15878,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15916,7 +15916,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15926,16 +15926,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -18172,7 +18172,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18200,12 +18200,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18220,7 +18220,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18248,12 +18248,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26/07/2023</t>
+          <t>18/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,11 +12583,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,11 +12631,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -15868,7 +15868,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15878,16 +15878,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15916,7 +15916,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15926,16 +15926,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -18172,7 +18172,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18200,12 +18200,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18220,7 +18220,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18248,12 +18248,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -8503,7 +8503,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -10135,7 +10135,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -17563,7 +17563,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F359" t="n">
@@ -18619,7 +18619,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F381" t="n">
@@ -19627,7 +19627,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F402" t="n">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,11 +12583,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,11 +12631,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -15868,7 +15868,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15878,16 +15878,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15916,7 +15916,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15926,16 +15926,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -18172,7 +18172,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18200,12 +18200,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18220,7 +18220,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18248,12 +18248,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,11 +12631,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,11 +12679,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -15916,7 +15916,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15926,16 +15926,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15964,7 +15964,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15974,16 +15974,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -15997,7 +15997,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -18220,7 +18220,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18248,12 +18248,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -18268,7 +18268,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18296,12 +18296,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,11 +12631,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,11 +12679,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -15916,7 +15916,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15926,16 +15926,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15964,7 +15964,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15974,16 +15974,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -15997,7 +15997,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -18220,7 +18220,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18248,12 +18248,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -18268,7 +18268,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18296,12 +18296,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,11 +12631,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,11 +12679,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -15916,7 +15916,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15926,16 +15926,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15964,7 +15964,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15974,16 +15974,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -15997,7 +15997,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -18220,7 +18220,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18248,12 +18248,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -18268,7 +18268,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18296,12 +18296,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,11 +12679,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,11 +12727,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -15964,7 +15964,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15974,16 +15974,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -15997,7 +15997,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16012,7 +16012,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16022,16 +16022,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -18268,7 +18268,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18296,12 +18296,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18316,7 +18316,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18344,12 +18344,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -5671,7 +5671,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -11479,7 +11479,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -12007,7 +12007,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F243" t="n">
@@ -12247,7 +12247,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F248" t="n">
@@ -12343,7 +12343,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F250" t="n">
@@ -12535,7 +12535,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F254" t="n">
@@ -12583,7 +12583,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F255" t="n">
@@ -16795,7 +16795,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F343" t="n">
@@ -20827,7 +20827,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F427" t="n">
@@ -20971,7 +20971,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F430" t="n">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,11 +12679,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,11 +12727,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -15964,7 +15964,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15974,16 +15974,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -15997,7 +15997,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16012,7 +16012,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16022,16 +16022,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -18268,7 +18268,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18296,12 +18296,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18316,7 +18316,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18344,12 +18344,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,11 +12679,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,11 +12727,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -15964,7 +15964,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15974,16 +15974,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -15997,7 +15997,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16012,7 +16012,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16022,16 +16022,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -18268,7 +18268,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18296,12 +18296,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18316,7 +18316,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18344,12 +18344,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -21403,7 +21403,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Mantos Copper S.A</t>
         </is>
       </c>
       <c r="F439" t="n">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,11 +12727,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,11 +12775,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -16012,7 +16012,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16022,16 +16022,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16060,7 +16060,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16070,16 +16070,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -18316,7 +18316,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18344,12 +18344,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -18364,7 +18364,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18392,12 +18392,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">

--- a/data/Til-Til.xlsx
+++ b/data/Til-Til.xlsx
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,11 +12727,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>KDM S.A.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>MODIFICACIONES RCA 263/2008 - PROYECTO CANCHA DE SECADO Y MONO-RELLENO EN LOMA LOS COLORADOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,11 +12775,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>KDM S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -16012,7 +16012,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16022,16 +16022,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16060,7 +16060,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Optimización Operacional Co-procesamiento Planta Cerro Blanco (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16070,16 +16070,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1858273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -18316,7 +18316,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18344,12 +18344,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -18364,7 +18364,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18392,12 +18392,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
